--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/20/seed1/result_data_RandomForest.xlsx
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.993999999999993</v>
+        <v>8.718799999999991</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.448199999999999</v>
+        <v>-7.375299999999998</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.050599999999999</v>
+        <v>6.266300000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.639500000000001</v>
+        <v>5.563499999999998</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -544,13 +544,13 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.098600000000001</v>
+        <v>6.385599999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.8499</v>
+        <v>-7.820200000000001</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.595899999999996</v>
+        <v>-7.337799999999994</v>
       </c>
     </row>
     <row r="10">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.195799999999997</v>
+        <v>-6.017399999999996</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.656499999999999</v>
+        <v>4.9621</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.146399999999991</v>
+        <v>-8.154599999999995</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.465599999999988</v>
+        <v>-9.494199999999987</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.584399999999992</v>
+        <v>-8.666299999999991</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.187099999999994</v>
+        <v>9.050999999999993</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.021199999999995</v>
+        <v>-8.102299999999991</v>
       </c>
     </row>
     <row r="21">
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.206799999999992</v>
+        <v>9.240099999999991</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.989300000000005</v>
+        <v>-7.848600000000005</v>
       </c>
     </row>
     <row r="27">
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.522900000000005</v>
+        <v>6.062400000000008</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.330900000000002</v>
+        <v>5.201400000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -852,7 +852,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.881700000000002</v>
+        <v>5.801700000000003</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -872,7 +872,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.818999999999996</v>
+        <v>-7.473899999999994</v>
       </c>
     </row>
     <row r="32">
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.498100000000001</v>
+        <v>6.764899999999996</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.0829</v>
+        <v>-8.214299999999998</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.449299999999994</v>
+        <v>9.42499999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.801199999999991</v>
+        <v>-8.698899999999991</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.714799999999998</v>
+        <v>-7.657899999999993</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.297099999999995</v>
+        <v>-8.345899999999993</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.650000000000008</v>
+        <v>-7.468200000000005</v>
       </c>
     </row>
     <row r="44">
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.924800000000001</v>
+        <v>5.843599999999998</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.674300000000001</v>
+        <v>-7.642199999999998</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.256899999999997</v>
+        <v>-7.558599999999996</v>
       </c>
     </row>
     <row r="49">
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.694699999999999</v>
+        <v>5.5931</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.569799999999998</v>
+        <v>5.583699999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.966399999999998</v>
+        <v>-8.027600000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.077099999999994</v>
+        <v>4.941899999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.571399999999998</v>
+        <v>4.671600000000001</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,13 +1300,13 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.010700000000001</v>
+        <v>5.105000000000001</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-9.495799999999985</v>
+        <v>-9.480199999999989</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.779099999999997</v>
+        <v>-6.613199999999997</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.070199999999996</v>
+        <v>-6.930499999999991</v>
       </c>
     </row>
     <row r="65">
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.844699999999996</v>
+        <v>5.956099999999996</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.813299999999996</v>
+        <v>8.965599999999997</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.019099999999995</v>
+        <v>9.004199999999996</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.592099999999999</v>
+        <v>-7.528399999999998</v>
       </c>
     </row>
     <row r="77">
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>8.801900000000005</v>
+        <v>8.962900000000005</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.861599999999999</v>
+        <v>-7.645900000000001</v>
       </c>
     </row>
     <row r="82">
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.409500000000001</v>
+        <v>-8.736700000000003</v>
       </c>
     </row>
     <row r="85">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.188199999999997</v>
+        <v>-8.232699999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.956999999999996</v>
+        <v>5.036099999999996</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.190899999999999</v>
+        <v>-6.221299999999996</v>
       </c>
     </row>
     <row r="95">
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.716000000000003</v>
+        <v>5.809600000000002</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
